--- a/R/20190420_work.xlsx
+++ b/R/20190420_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE33BF45-E909-3440-926B-8F841F98DBB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D91A0-52F1-7D4D-9703-CEAC7AD3BA53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{AE66FE3F-8D75-F549-9ECB-BAE381A2E5E5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
   <si>
     <t>t_(15-1),0.025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +582,58 @@
   </si>
   <si>
     <t>자동차 사고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=F.INV(1-0.05,2,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=F.INV.RT(0.05,2,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=F.DIST($G$18,2,15,FALSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=F.DIST($G$18,2,15,TRUE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=qf(1-0.05,2,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=pf(3.6823,2,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=df(3.6823,2,15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밀도함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적분포함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위수 함수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>density fn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantile fn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumulative distribution fn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2590,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF55A5-E0FC-9447-86EA-4E728CB23BD7}">
-  <dimension ref="A2:P17"/>
+  <dimension ref="A2:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -2976,9 +3028,77 @@
       </c>
       <c r="L16" s="8"/>
     </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:13">
       <c r="C17" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="G18">
+        <v>3.6823203436732408</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="G19">
+        <f>_xlfn.F.DIST($G$18,2,15,TRUE)</f>
+        <v>0.95</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="G20">
+        <f>_xlfn.F.DIST($G$18,2,15,FALSE)</f>
+        <v>3.3535079346226127E-2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="G21">
+        <f>_xlfn.F.INV(1-0.05,2,15)</f>
+        <v>3.6823203436732408</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" t="s">
+        <v>151</v>
+      </c>
+      <c r="M21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="G22">
+        <f>_xlfn.F.INV.RT(0.05,2,15)</f>
+        <v>3.6823203436732408</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/R/20190420_work.xlsx
+++ b/R/20190420_work.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tolkien/work/misc/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3D91A0-52F1-7D4D-9703-CEAC7AD3BA53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C9A4DA-7D53-1548-9DBF-60A5870AA3DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" activeTab="3" xr2:uid="{AE66FE3F-8D75-F549-9ECB-BAE381A2E5E5}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="26360" windowHeight="14900" xr2:uid="{AE66FE3F-8D75-F549-9ECB-BAE381A2E5E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="모평균 비교.2" sheetId="4" r:id="rId3"/>
     <sheet name="모평균 비교.t-paired" sheetId="5" r:id="rId4"/>
+    <sheet name="2장 그래프" sheetId="6" r:id="rId5"/>
+    <sheet name="3장 데이타베이스" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="218">
   <si>
     <t>t_(15-1),0.025</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -634,6 +636,258 @@
   </si>
   <si>
     <t>cumulative distribution fn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량항목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벌어짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접힘선 이탈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긁힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불량개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적퍼센트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이명박</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정동영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이회창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문국현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권영길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 득표율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제 2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예제 2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수분포표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급구간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5 ~ 12.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.5 ~ 17.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.5 ~ 22.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.5 ~ 27.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.5 ~ 32.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32.5 ~ 37.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.5 ~ 42.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계급값*도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본분산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표본표준편차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(계급값-평균)^2*도수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연습문제 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr[X=x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 14 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 14 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 14 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 15 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 15 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 15 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pr[X = x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f(x) = 1/SQRT(2 PI) E^(-Z^2/2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 18 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 18 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 18 (3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 20 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX 20 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>si =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P(Z &lt; Z0) =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z0 =</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P 171, EX 04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,11 +895,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.0%"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
+    <numFmt numFmtId="180" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -661,16 +918,30 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -698,13 +969,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -738,8 +1095,84 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,6 +1186,6169 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2장 그래프'!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>불량개수</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2장 그래프'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>뒤틀림</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>벌어짐</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>접힘선 이탈</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>긁힘</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2장 그래프'!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAEB-6C4B-922E-048681868950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1636004095"/>
+        <c:axId val="1639319135"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2장 그래프'!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>누적퍼센트</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2장 그래프'!$B$4:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>뒤틀림</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>벌어짐</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>접힘선 이탈</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>긁힘</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2장 그래프'!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAEB-6C4B-922E-048681868950}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1639305295"/>
+        <c:axId val="1600326815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1636004095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639319135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1639319135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1636004095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1600326815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639305295"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1639305295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1600326815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1545138888888889"/>
+          <c:y val="0.10146862483311081"/>
+          <c:w val="0.7534722222222221"/>
+          <c:h val="0.86915887850467277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2장 그래프'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>실제 득표율</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:explosion val="10"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-0B13-C847-A1F2-6E51D5F826CB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ko-KR"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0B13-C847-A1F2-6E51D5F826CB}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2장 그래프'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>이명박</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>정동영</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>이회창</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>문국현</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>권영길</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2장 그래프'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0B13-C847-A1F2-6E51D5F826CB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2장 그래프'!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>실제 득표율</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="84000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ko-KR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2장 그래프'!$G$4:$G$9</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>이명박</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>정동영</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>이회창</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>문국현</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>권영길</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>기타</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2장 그래프'!$H$4:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.151</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3684-D84B-99C1-7E9E0ECC2E00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:axId val="1640745999"/>
+        <c:axId val="1661318143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1640745999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661318143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661318143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1640745999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="68000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3장 데이타베이스'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pr[X=x]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'3장 데이타베이스'!$B$5:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>X</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3장 데이타베이스'!$C$6:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9073486328125034E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8119812011718755E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0871887207031263E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6205520629882752E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4785766601562502E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6964416503906257E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3928833007812458E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12013435363769531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.16017913818359369</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17619705200195307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16017913818359369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12013435363769531</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3928833007812472E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6964416503906257E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4785766601562502E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6205520629882752E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0871887207031261E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8119812011718753E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9073486328125E-5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7F3B-5E4A-9506-6597FD29B11C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1641653423"/>
+        <c:axId val="1641443311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641653423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641443311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1641443311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641653423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3장 데이타베이스'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pr[X=x]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3장 데이타베이스'!$I$6:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3장 데이타베이스'!$J$6:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.5625000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23437500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31249999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23437500000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.375E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5625000000000007E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ED9E-5944-BBB0-88FA488BCB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1663201919"/>
+        <c:axId val="1661257951"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1663201919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661257951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1661257951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663201919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'3장 데이타베이스'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pr[X = x]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'3장 데이타베이스'!$B$30:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80000000000000027</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.60000000000000031</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.4000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.20000000000000029</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9999999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'3장 데이타베이스'!$C$30:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5.3990966513188063E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11092083467945554</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14972746563574482</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19418605498321292</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24197072451914331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28969155276148267</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33322460289179962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36827014030332328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.39104269397545588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3989422804014327</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.39104269397545588</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.36827014030332333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33322460289179967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28969155276148273</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.24197072451914337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.19418605498321295</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14972746563574488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11092083467945558</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.8950158300894177E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.3990966513188084E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FF00-4F49-82BF-0ADB72FAE79B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1641618975"/>
+        <c:axId val="1662261791"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1641618975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1662261791"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1662261791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1641618975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="204">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="68000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="84000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="1"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="84000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="1"/>
+      </a:gradFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="76200" dir="18900000" sy="23000" kx="-1200000" algn="bl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr kern="1200">
+      <a:effectLst/>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>943070</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>94873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749426</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>94872</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D55999C-E77F-B744-B3EF-6E052BFAF386}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234360D7-D8E2-E846-ABFB-D452446B4941}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F942F8EE-9C6F-0740-A8F7-75A74DF6405C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3503FA6E-54B0-1D45-981B-7F66405E05BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8514E829-31B7-354E-A13F-76DF1998BDF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="차트 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AE9CF6-FE0A-7044-A25C-DF18D915AF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1052,15 +7648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE901FB-7376-2B41-B571-9F9FED697657}">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1642,6 +8239,9 @@
         <f>E17*SQRT(B24/C24)</f>
         <v>3.5286728586527016</v>
       </c>
+      <c r="I23" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
@@ -1669,6 +8269,12 @@
       <c r="G24" t="s">
         <v>8</v>
       </c>
+      <c r="I24" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="J24">
+        <v>3.25</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
@@ -1688,6 +8294,12 @@
         <f>E17*SQRT(B26/C26)</f>
         <v>2.9520590633246262</v>
       </c>
+      <c r="I25" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
@@ -1715,6 +8327,55 @@
       <c r="G26" t="s">
         <v>8</v>
       </c>
+      <c r="I26" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="I27" s="34" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27">
+        <f>(3-J24)/J25</f>
+        <v>-0.5</v>
+      </c>
+      <c r="K27">
+        <f>(3-J24)/(J25/SQRT(J26))</f>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="I28" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28">
+        <f>_xlfn.NORM.S.DIST(J27,1)</f>
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="K28">
+        <f>_xlfn.NORM.S.DIST(K27,1)</f>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="I29" s="34"/>
+      <c r="J29">
+        <f>_xlfn.NORM.DIST(3,J24,J25,1)</f>
+        <v>0.30853753872598688</v>
+      </c>
+      <c r="K29">
+        <f>_xlfn.NORM.DIST(3,J24,J25/SQRT(J26), 1)</f>
+        <v>6.2096653257761331E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="I30" s="34"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="I31" s="34"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C16">
@@ -2644,7 +9305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEFF55A5-E0FC-9447-86EA-4E728CB23BD7}">
   <dimension ref="A2:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3105,4 +9766,988 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45631DA-B7CD-1347-B790-1E649C5BB1D0}">
+  <dimension ref="B1:H36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8">
+      <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5">
+        <v>33</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G6" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7" s="12">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="G9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="14">
+        <v>10</v>
+      </c>
+      <c r="D25" s="22">
+        <v>7</v>
+      </c>
+      <c r="E25" s="17">
+        <f>C25*D25</f>
+        <v>70</v>
+      </c>
+      <c r="F25" s="28">
+        <f>(C25-$D$34)^2*D25</f>
+        <v>1019.6195005945306</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="16">
+        <v>15</v>
+      </c>
+      <c r="D26" s="16">
+        <v>2</v>
+      </c>
+      <c r="E26" s="18">
+        <f t="shared" ref="E26:E31" si="0">C26*D26</f>
+        <v>30</v>
+      </c>
+      <c r="F26" s="29">
+        <f>(C26-$D$34)^2*D26</f>
+        <v>99.940546967895401</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="16">
+        <v>20</v>
+      </c>
+      <c r="D27" s="16">
+        <v>8</v>
+      </c>
+      <c r="E27" s="18">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="F27" s="29">
+        <f t="shared" ref="F27:F31" si="1">(C27-$D$34)^2*D27</f>
+        <v>34.244946492271154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="16">
+        <v>25</v>
+      </c>
+      <c r="D28" s="16">
+        <v>4</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="1"/>
+        <v>34.363852556480346</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="16">
+        <v>30</v>
+      </c>
+      <c r="D29" s="16">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F29" s="29">
+        <f t="shared" si="1"/>
+        <v>125.80261593341255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="16">
+        <v>35</v>
+      </c>
+      <c r="D30" s="16">
+        <v>4</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="F30" s="29">
+        <f t="shared" si="1"/>
+        <v>668.84661117716985</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="15">
+        <v>40</v>
+      </c>
+      <c r="D31" s="23">
+        <v>2</v>
+      </c>
+      <c r="E31" s="19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F31" s="30">
+        <f t="shared" si="1"/>
+        <v>643.04399524375731</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="13"/>
+      <c r="C32" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D32" s="20">
+        <f>SUM(D25:D31)</f>
+        <v>29</v>
+      </c>
+      <c r="E32" s="25">
+        <f>SUM(E25:E31)</f>
+        <v>640</v>
+      </c>
+      <c r="F32" s="31">
+        <f>SUM(F25:F31)</f>
+        <v>2625.8620689655172</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D34" s="26">
+        <f>E32/D32</f>
+        <v>22.068965517241381</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="26">
+        <f>F32/(D32-1)</f>
+        <v>93.7807881773399</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="26">
+        <f>SQRT(D35)</f>
+        <v>9.6840481296480494</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:D23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F371C2-73C4-4D4A-9929-80AFD3873F43}">
+  <dimension ref="B1:J49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10">
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.BINOM.DIST(B6,$C$2,$C$3,FALSE)</f>
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="32">
+        <f>_xlfn.BINOM.DIST(I6,$J$2,$J$3,FALSE)</f>
+        <v>1.5625000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C26" si="0">_xlfn.BINOM.DIST(B7,$C$2,$C$3,FALSE)</f>
+        <v>1.9073486328125034E-5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="32">
+        <f t="shared" ref="J7:J12" si="1">_xlfn.BINOM.DIST(I7,$J$2,$J$3,FALSE)</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.8119812011718755E-4</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8" s="32">
+        <f t="shared" si="1"/>
+        <v>0.23437500000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>1.0871887207031263E-3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="32">
+        <f t="shared" si="1"/>
+        <v>0.31249999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4.6205520629882752E-3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="32">
+        <f t="shared" si="1"/>
+        <v>0.23437500000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>1.4785766601562502E-2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11" s="32">
+        <f t="shared" si="1"/>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3.6964416503906257E-2</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12" s="32">
+        <f t="shared" si="1"/>
+        <v>1.5625000000000007E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>7.3928833007812458E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.12013435363769531</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.16017913818359369</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.17619705200195307</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.16017913818359369</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.12013435363769531</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="32">
+        <f>1-_xlfn.BINOM.DIST(6,25,0.1,TRUE)</f>
+        <v>9.4763606915064802E-3</v>
+      </c>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>7.3928833007812472E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="32">
+        <f>1-_xlfn.BINOM.DIST(4,10,0.5,TRUE)</f>
+        <v>0.623046875</v>
+      </c>
+      <c r="G19" s="32">
+        <f>_xlfn.BINOM.DIST(6,10,0.5,TRUE)-_xlfn.BINOM.DIST(2,10,0.5,TRUE)</f>
+        <v>0.7734375</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>3.6964416503906257E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="32">
+        <f>1-_xlfn.POISSON.DIST(4,5,TRUE)</f>
+        <v>0.55950671493478765</v>
+      </c>
+      <c r="G20" s="32">
+        <f>_xlfn.POISSON.DIST(6,5,TRUE)-_xlfn.POISSON.DIST(2,5,TRUE)</f>
+        <v>0.63753144348985746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1.4785766601562502E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="32">
+        <f>1-_xlfn.NORM.DIST(114,100,5,TRUE)</f>
+        <v>2.5551303304279793E-3</v>
+      </c>
+      <c r="G21" s="32">
+        <f>_xlfn.NORM.DIST(105,100,5,TRUE)-_xlfn.NORM.DIST(94,100,5,TRUE)</f>
+        <v>0.72627507584683482</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>4.6205520629882752E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" s="32">
+        <f>_xlfn.BINOM.DIST(0,20,0.2,FALSE)</f>
+        <v>1.1529215046068471E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.0871887207031261E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="F23" s="32">
+        <f>1-_xlfn.BINOM.DIST(7,20,0.2,TRUE)</f>
+        <v>3.21426630808751E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.8119812011718753E-4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="32">
+        <f>_xlfn.BINOM.DIST(6,20,0.2,TRUE)-_xlfn.BINOM.DIST(3,20,0.2,TRUE)</f>
+        <v>0.50185862447603125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.9073486328125E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>9.5367431640625E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" t="s">
+        <v>206</v>
+      </c>
+      <c r="J28" s="32">
+        <f>1-_xlfn.NORM.DIST(15.49,15.28,0.12,TRUE)</f>
+        <v>4.0059156863816447E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" s="32">
+        <f>_xlfn.NORM.DIST(15,15.28,0.12,TRUE)</f>
+        <v>9.8153286286454741E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30">
+        <v>-2</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.NORM.S.DIST(B30,FALSE)</f>
+        <v>5.3990966513188063E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>208</v>
+      </c>
+      <c r="J30" s="32">
+        <f>_xlfn.NORM.DIST(15.4,15.28,0.12,TRUE) - _xlfn.NORM.DIST(15.09,15.28,0.12,TRUE)</f>
+        <v>0.78467199145878164</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31">
+        <f>B30+0.4</f>
+        <v>-1.6</v>
+      </c>
+      <c r="C31">
+        <f t="shared" ref="C31:C49" si="2">_xlfn.NORM.S.DIST(B31,FALSE)</f>
+        <v>0.11092083467945554</v>
+      </c>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32">
+        <f t="shared" ref="B32:B49" si="3">B31+0.2</f>
+        <v>-1.4000000000000001</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>0.14972746563574482</v>
+      </c>
+      <c r="I32" t="s">
+        <v>209</v>
+      </c>
+      <c r="J32" s="32">
+        <f>_xlfn.NORM.DIST(11,14,2,TRUE)</f>
+        <v>6.6807201268858057E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33">
+        <f t="shared" si="3"/>
+        <v>-1.2000000000000002</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>0.19418605498321292</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34">
+        <f t="shared" si="3"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>0.24197072451914331</v>
+      </c>
+      <c r="I34" t="s">
+        <v>210</v>
+      </c>
+      <c r="J34" s="12">
+        <f>_xlfn.NORM.DIST(80,90,20,TRUE)</f>
+        <v>0.30853753872598688</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>-0.80000000000000027</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>0.28969155276148267</v>
+      </c>
+      <c r="I35" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" s="33">
+        <f>_xlfn.NORM.INV(0.05,90,20)</f>
+        <v>57.102927460970548</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>-0.60000000000000031</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>0.33322460289179962</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>-0.4000000000000003</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>0.36827014030332328</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>-0.20000000000000029</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="2"/>
+        <v>0.39104269397545588</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>0.3989422804014327</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>0.39104269397545588</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>0.36827014030332333</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>0.33322460289179967</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>0.28969155276148273</v>
+      </c>
+      <c r="E43">
+        <f>1-_xlfn.NORM.DIST(250,220,30,TRUE)</f>
+        <v>0.15865525393145696</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>0.24197072451914337</v>
+      </c>
+      <c r="E44">
+        <f>1-_xlfn.NORM.S.DIST((250-220)/30,TRUE)</f>
+        <v>0.15865525393145696</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>0.19418605498321295</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>1.4</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>0.14972746563574488</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="2"/>
+        <v>0.11092083467945558</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="2"/>
+        <v>7.8950158300894177E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="2"/>
+        <v>5.3990966513188084E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>